--- a/Security Capabilities.xlsx
+++ b/Security Capabilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brad_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF8BAD7-9421-4204-878F-36E13981857C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B785EB-7AFA-44B5-87FB-8EBE84FA75A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{643EAE32-8779-4661-A730-1721914B7A71}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{643EAE32-8779-4661-A730-1721914B7A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="629">
   <si>
     <t>Domain</t>
   </si>
@@ -2397,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072E7C64-ACEC-4263-9AAF-7603308E6BC3}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -2524,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4869816E-AA9D-46A7-9B48-69A63811F3B3}">
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4080,7 +4080,9 @@
       <c r="D42" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F42" s="11" t="s">
         <v>26</v>
       </c>
@@ -4115,7 +4117,9 @@
       <c r="D43" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F43" s="14" t="s">
         <v>19</v>
       </c>
@@ -4150,7 +4154,9 @@
       <c r="D44" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="11"/>
+      <c r="E44" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F44" s="11" t="s">
         <v>19</v>
       </c>
@@ -4222,7 +4228,9 @@
       <c r="D46" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F46" s="11" t="s">
         <v>19</v>
       </c>
@@ -4294,7 +4302,9 @@
       <c r="D48" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="11"/>
+      <c r="E48" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F48" s="11" t="s">
         <v>19</v>
       </c>
@@ -4329,7 +4339,9 @@
       <c r="D49" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E49" s="14"/>
+      <c r="E49" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F49" s="14" t="s">
         <v>19</v>
       </c>
@@ -4364,7 +4376,9 @@
       <c r="D50" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="11"/>
+      <c r="E50" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F50" s="11" t="s">
         <v>19</v>
       </c>
@@ -4399,7 +4413,9 @@
       <c r="D51" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F51" s="14" t="s">
         <v>19</v>
       </c>
@@ -4434,7 +4450,9 @@
       <c r="D52" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F52" s="11" t="s">
         <v>26</v>
       </c>
@@ -4469,7 +4487,9 @@
       <c r="D53" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E53" s="14"/>
+      <c r="E53" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F53" s="14" t="s">
         <v>19</v>
       </c>
@@ -4504,7 +4524,9 @@
       <c r="D54" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F54" s="11" t="s">
         <v>19</v>
       </c>
@@ -4539,7 +4561,9 @@
       <c r="D55" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="14"/>
+      <c r="E55" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F55" s="14" t="s">
         <v>19</v>
       </c>
@@ -4574,7 +4598,9 @@
       <c r="D56" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F56" s="11" t="s">
         <v>19</v>
       </c>
@@ -4609,7 +4635,9 @@
       <c r="D57" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="14"/>
+      <c r="E57" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F57" s="14" t="s">
         <v>19</v>
       </c>
@@ -4644,7 +4672,9 @@
       <c r="D58" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E58" s="11"/>
+      <c r="E58" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F58" s="11" t="s">
         <v>19</v>
       </c>
@@ -4679,7 +4709,9 @@
       <c r="D59" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="14"/>
+      <c r="E59" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F59" s="14" t="s">
         <v>19</v>
       </c>
@@ -4714,7 +4746,9 @@
       <c r="D60" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E60" s="11"/>
+      <c r="E60" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F60" s="11" t="s">
         <v>19</v>
       </c>
@@ -4749,7 +4783,9 @@
       <c r="D61" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E61" s="14"/>
+      <c r="E61" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F61" s="14" t="s">
         <v>19</v>
       </c>
@@ -4858,7 +4894,9 @@
       <c r="D64" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E64" s="11"/>
+      <c r="E64" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F64" s="11" t="s">
         <v>19</v>
       </c>
@@ -5078,7 +5116,9 @@
       <c r="D70" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E70" s="11"/>
+      <c r="E70" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F70" s="11" t="s">
         <v>19</v>
       </c>
@@ -5113,7 +5153,9 @@
       <c r="D71" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E71" s="14"/>
+      <c r="E71" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F71" s="14" t="s">
         <v>19</v>
       </c>
@@ -5333,7 +5375,9 @@
       <c r="D77" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E77" s="14"/>
+      <c r="E77" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F77" s="14" t="s">
         <v>19</v>
       </c>
@@ -5368,7 +5412,9 @@
       <c r="D78" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E78" s="11"/>
+      <c r="E78" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F78" s="11" t="s">
         <v>19</v>
       </c>
@@ -5440,7 +5486,9 @@
       <c r="D80" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E80" s="11"/>
+      <c r="E80" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F80" s="11" t="s">
         <v>19</v>
       </c>
@@ -5512,7 +5560,9 @@
       <c r="D82" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E82" s="11"/>
+      <c r="E82" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F82" s="11" t="s">
         <v>19</v>
       </c>
@@ -5769,7 +5819,9 @@
       <c r="D89" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="E89" s="14"/>
+      <c r="E89" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F89" s="14" t="s">
         <v>19</v>
       </c>
@@ -5804,7 +5856,9 @@
       <c r="D90" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E90" s="11"/>
+      <c r="E90" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F90" s="11" t="s">
         <v>26</v>
       </c>
@@ -5839,7 +5893,9 @@
       <c r="D91" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E91" s="14"/>
+      <c r="E91" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F91" s="14" t="s">
         <v>19</v>
       </c>
@@ -5948,7 +6004,9 @@
       <c r="D94" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E94" s="11"/>
+      <c r="E94" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F94" s="11" t="s">
         <v>19</v>
       </c>
@@ -6020,7 +6078,9 @@
       <c r="D96" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E96" s="11"/>
+      <c r="E96" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F96" s="11" t="s">
         <v>19</v>
       </c>
@@ -6055,7 +6115,9 @@
       <c r="D97" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="E97" s="14"/>
+      <c r="E97" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F97" s="14" t="s">
         <v>19</v>
       </c>
@@ -6090,7 +6152,9 @@
       <c r="D98" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E98" s="11"/>
+      <c r="E98" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F98" s="11" t="s">
         <v>26</v>
       </c>
@@ -6199,7 +6263,9 @@
       <c r="D101" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="E101" s="14"/>
+      <c r="E101" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F101" s="14" t="s">
         <v>19</v>
       </c>
@@ -6234,7 +6300,9 @@
       <c r="D102" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E102" s="11"/>
+      <c r="E102" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F102" s="11" t="s">
         <v>19</v>
       </c>
@@ -6269,7 +6337,9 @@
       <c r="D103" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E103" s="14"/>
+      <c r="E103" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F103" s="14" t="s">
         <v>19</v>
       </c>
@@ -6304,7 +6374,9 @@
       <c r="D104" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E104" s="11"/>
+      <c r="E104" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F104" s="11" t="s">
         <v>19</v>
       </c>
@@ -6339,7 +6411,9 @@
       <c r="D105" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="E105" s="14"/>
+      <c r="E105" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F105" s="14" t="s">
         <v>19</v>
       </c>
@@ -6374,7 +6448,9 @@
       <c r="D106" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E106" s="11"/>
+      <c r="E106" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F106" s="11" t="s">
         <v>19</v>
       </c>
@@ -6409,7 +6485,9 @@
       <c r="D107" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="E107" s="14"/>
+      <c r="E107" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F107" s="14" t="s">
         <v>19</v>
       </c>
@@ -6444,7 +6522,9 @@
       <c r="D108" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E108" s="11"/>
+      <c r="E108" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F108" s="11" t="s">
         <v>19</v>
       </c>
@@ -6479,7 +6559,9 @@
       <c r="D109" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="E109" s="14"/>
+      <c r="E109" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F109" s="14" t="s">
         <v>19</v>
       </c>
@@ -6514,7 +6596,9 @@
       <c r="D110" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E110" s="11"/>
+      <c r="E110" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F110" s="11" t="s">
         <v>19</v>
       </c>
@@ -6549,7 +6633,9 @@
       <c r="D111" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="E111" s="14"/>
+      <c r="E111" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F111" s="14" t="s">
         <v>19</v>
       </c>
@@ -6584,7 +6670,9 @@
       <c r="D112" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E112" s="11"/>
+      <c r="E112" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F112" s="11" t="s">
         <v>26</v>
       </c>
@@ -6619,7 +6707,9 @@
       <c r="D113" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E113" s="14"/>
+      <c r="E113" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F113" s="14" t="s">
         <v>19</v>
       </c>
@@ -6728,7 +6818,9 @@
       <c r="D116" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E116" s="11"/>
+      <c r="E116" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F116" s="11" t="s">
         <v>19</v>
       </c>
@@ -6911,7 +7003,9 @@
       <c r="D121" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="E121" s="14"/>
+      <c r="E121" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F121" s="14" t="s">
         <v>19</v>
       </c>
@@ -6946,7 +7040,9 @@
       <c r="D122" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E122" s="11"/>
+      <c r="E122" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F122" s="11" t="s">
         <v>19</v>
       </c>
@@ -6981,7 +7077,9 @@
       <c r="D123" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="E123" s="14"/>
+      <c r="E123" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F123" s="14" t="s">
         <v>19</v>
       </c>
@@ -7016,7 +7114,9 @@
       <c r="D124" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E124" s="11"/>
+      <c r="E124" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F124" s="11" t="s">
         <v>19</v>
       </c>
@@ -7051,7 +7151,9 @@
       <c r="D125" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="E125" s="14"/>
+      <c r="E125" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F125" s="14" t="s">
         <v>19</v>
       </c>
@@ -7086,7 +7188,9 @@
       <c r="D126" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E126" s="11"/>
+      <c r="E126" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F126" s="11" t="s">
         <v>19</v>
       </c>
@@ -7121,7 +7225,9 @@
       <c r="D127" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="E127" s="14"/>
+      <c r="E127" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F127" s="14" t="s">
         <v>19</v>
       </c>
@@ -7156,7 +7262,9 @@
       <c r="D128" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E128" s="11"/>
+      <c r="E128" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F128" s="11" t="s">
         <v>19</v>
       </c>
@@ -7191,7 +7299,9 @@
       <c r="D129" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="E129" s="14"/>
+      <c r="E129" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F129" s="14" t="s">
         <v>19</v>
       </c>
@@ -7226,7 +7336,9 @@
       <c r="D130" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E130" s="11"/>
+      <c r="E130" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F130" s="11" t="s">
         <v>19</v>
       </c>
@@ -7261,7 +7373,9 @@
       <c r="D131" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E131" s="14"/>
+      <c r="E131" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F131" s="14" t="s">
         <v>19</v>
       </c>
@@ -7296,7 +7410,9 @@
       <c r="D132" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E132" s="11"/>
+      <c r="E132" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F132" s="11" t="s">
         <v>19</v>
       </c>
@@ -7331,7 +7447,9 @@
       <c r="D133" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="E133" s="14"/>
+      <c r="E133" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F133" s="14" t="s">
         <v>26</v>
       </c>
@@ -7366,7 +7484,9 @@
       <c r="D134" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E134" s="11"/>
+      <c r="E134" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F134" s="11" t="s">
         <v>19</v>
       </c>
@@ -7401,7 +7521,9 @@
       <c r="D135" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="E135" s="14"/>
+      <c r="E135" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F135" s="14" t="s">
         <v>19</v>
       </c>
@@ -7436,7 +7558,9 @@
       <c r="D136" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E136" s="11"/>
+      <c r="E136" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="F136" s="11" t="s">
         <v>19</v>
       </c>
@@ -7471,7 +7595,9 @@
       <c r="D137" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="E137" s="14"/>
+      <c r="E137" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F137" s="14" t="s">
         <v>19</v>
       </c>
@@ -7506,7 +7632,9 @@
       <c r="D138" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E138" s="11"/>
+      <c r="E138" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F138" s="11" t="s">
         <v>19</v>
       </c>
@@ -7541,7 +7669,9 @@
       <c r="D139" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="E139" s="14"/>
+      <c r="E139" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="F139" s="14" t="s">
         <v>19</v>
       </c>
